--- a/Documentacion/Tablas primeros y siguientes-Proyecto 2.xlsx
+++ b/Documentacion/Tablas primeros y siguientes-Proyecto 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalej\Documents\Universidad\Lenguajes formales y de programacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalej\Documents\C# Projects\Analizador Lexico\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C548C5BD-F291-4DDF-8B35-2879DDDDDF8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67880DD4-C889-46A9-B1E8-CB3B9CE2A61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F97D0A5B-6508-4496-B1AF-990DB1DF8793}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F97D0A5B-6508-4496-B1AF-990DB1DF8793}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>No Terminales</t>
   </si>
@@ -153,9 +153,6 @@
     <t>{ &gt;, &lt;, ==, &lt;=, &gt;=, != }</t>
   </si>
   <si>
-    <t>{ &amp;&amp;, ||}</t>
-  </si>
-  <si>
     <t>{ } }</t>
   </si>
   <si>
@@ -349,6 +346,15 @@
   </si>
   <si>
     <t>{ ; , )}</t>
+  </si>
+  <si>
+    <t>P(Q''')</t>
+  </si>
+  <si>
+    <t>S(Q''')</t>
+  </si>
+  <si>
+    <t>{ &amp;&amp;, ||,Ɛ }</t>
   </si>
 </sst>
 </file>
@@ -724,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591B48A0-1191-412B-AA37-3B96E3EED960}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,10 +750,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
         <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
@@ -758,10 +764,10 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
@@ -769,13 +775,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -783,13 +789,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -800,7 +806,7 @@
         <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" t="s">
         <v>30</v>
@@ -808,16 +814,16 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
         <v>94</v>
       </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>95</v>
-      </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
@@ -825,69 +831,69 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
-        <v>62</v>
-      </c>
       <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
         <v>92</v>
-      </c>
-      <c r="G10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
         <v>99</v>
       </c>
-      <c r="C12" t="s">
-        <v>100</v>
-      </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
@@ -898,7 +904,7 @@
         <v>32</v>
       </c>
       <c r="F13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
         <v>30</v>
@@ -912,10 +918,10 @@
         <v>32</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
@@ -926,10 +932,10 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
@@ -940,10 +946,10 @@
         <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
@@ -951,27 +957,27 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" t="s">
         <v>104</v>
       </c>
-      <c r="C18" t="s">
+      <c r="F18" t="s">
         <v>105</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>106</v>
-      </c>
-      <c r="G18" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
@@ -982,10 +988,10 @@
         <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
@@ -996,10 +1002,10 @@
         <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -1010,10 +1016,10 @@
         <v>33</v>
       </c>
       <c r="F21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
@@ -1024,10 +1030,10 @@
         <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
@@ -1038,10 +1044,10 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
@@ -1052,7 +1058,7 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -1066,7 +1072,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1080,10 +1086,10 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -1094,10 +1100,10 @@
         <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -1108,7 +1114,7 @@
         <v>38</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -1122,10 +1128,10 @@
         <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1136,10 +1142,10 @@
         <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1150,7 +1156,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
         <v>40</v>
@@ -1158,16 +1164,16 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
@@ -1175,13 +1181,13 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
@@ -1189,13 +1195,13 @@
         <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
@@ -1203,13 +1209,13 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
@@ -1217,10 +1223,10 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>

--- a/Documentacion/Tablas primeros y siguientes-Proyecto 2.xlsx
+++ b/Documentacion/Tablas primeros y siguientes-Proyecto 2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jalej\Documents\C# Projects\Analizador Lexico\Documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67880DD4-C889-46A9-B1E8-CB3B9CE2A61B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B666AF-C955-4223-B79A-BE84833519A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{F97D0A5B-6508-4496-B1AF-990DB1DF8793}"/>
   </bookViews>
@@ -411,23 +411,29 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{476021FB-0248-4763-BFE0-6AF76C974050}" name="Tabla1" displayName="Tabla1" ref="B2:C36" totalsRowShown="0">
-  <autoFilter ref="B2:C36" xr:uid="{CAD69186-6F57-48AE-B893-46B83E8A3C57}"/>
+  <autoFilter ref="B2:C36" xr:uid="{CAD69186-6F57-48AE-B893-46B83E8A3C57}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{12EA33E6-6621-4C98-8D5A-E3BDBA9549F3}" name="No Terminales"/>
     <tableColumn id="2" xr3:uid="{28D35141-03C0-4E07-A16E-0242624B1C70}" name="Primeros"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8AB6C680-23DA-43DD-9C46-B9F3E023D5C5}" name="Tabla2" displayName="Tabla2" ref="F2:G36" totalsRowShown="0">
-  <autoFilter ref="F2:G36" xr:uid="{74BAE208-A02D-4B8E-A558-33DA7C907C80}"/>
+  <autoFilter ref="F2:G36" xr:uid="{74BAE208-A02D-4B8E-A558-33DA7C907C80}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{9FF58E55-E529-4630-85FB-CE4E9F455480}" name="No Terminal"/>
     <tableColumn id="2" xr3:uid="{F56A6216-FF30-4DEB-8FBA-9868BAEFF7CE}" name="Siguientes"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -730,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591B48A0-1191-412B-AA37-3B96E3EED960}">
   <dimension ref="B2:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
